--- a/information/Phan mem QLCB_HQHT.xlsx
+++ b/information/Phan mem QLCB_HQHT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="103">
   <si>
     <t>DANH SÁCH BÁO LỖI PHẦN MỀM TCCB</t>
   </si>
@@ -781,9 +781,107 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -796,18 +894,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -819,92 +905,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
@@ -1238,19 +1238,19 @@
     <col min="3" max="3" width="38.140625" style="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="73"/>
+    <col min="6" max="6" width="9" style="42"/>
     <col min="7" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="30" customFormat="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" s="30" customFormat="1">
       <c r="A2" s="37"/>
@@ -1258,7 +1258,7 @@
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
       <c r="E2" s="37"/>
-      <c r="F2" s="72"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" s="30" customFormat="1">
       <c r="A3" s="31" t="s">
@@ -1276,7 +1276,7 @@
       <c r="E3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="72"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:6" ht="31.5">
       <c r="A4" s="39">
@@ -1354,7 +1354,7 @@
       <c r="E8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="F8" s="42" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1404,6 +1404,9 @@
         <v>95</v>
       </c>
       <c r="E11" s="34"/>
+      <c r="F11" s="42" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="31.5">
       <c r="A12" s="39">
@@ -1482,6 +1485,9 @@
       </c>
       <c r="E16" s="34" t="s">
         <v>25</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="47.25">
@@ -3103,101 +3109,101 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="69" t="s">
+      <c r="I3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="69" t="s">
+      <c r="J3" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="63" t="s">
+      <c r="N3" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="60" t="s">
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="60" t="s">
+      <c r="S3" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="57" t="s">
+      <c r="T3" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="54" t="s">
+      <c r="U3" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="55"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:21" ht="24">
-      <c r="A5" s="44"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
       <c r="N5" s="2" t="s">
         <v>57</v>
       </c>
@@ -3210,10 +3216,10 @@
       <c r="Q5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="56"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1">
       <c r="A6" s="4">
@@ -3393,6 +3399,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="T3:T5"/>
@@ -3406,11 +3417,6 @@
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:U6">
     <cfRule type="expression" dxfId="2" priority="28">

--- a/information/Phan mem QLCB_HQHT.xlsx
+++ b/information/Phan mem QLCB_HQHT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
   <si>
     <t>DANH SÁCH BÁO LỖI PHẦN MỀM TCCB</t>
   </si>
@@ -790,6 +790,42 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -858,18 +894,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -880,30 +904,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
@@ -1307,6 +1307,9 @@
         <v>38</v>
       </c>
       <c r="E5" s="34"/>
+      <c r="F5" s="42" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="47.25">
       <c r="A6" s="39">
@@ -3109,101 +3112,101 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="53" t="s">
+      <c r="L3" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="N3" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="53" t="s">
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="53" t="s">
+      <c r="S3" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="50" t="s">
+      <c r="T3" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="47" t="s">
+      <c r="U3" s="56" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="48"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="57"/>
     </row>
     <row r="5" spans="1:21" ht="24">
-      <c r="A5" s="70"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
       <c r="N5" s="2" t="s">
         <v>57</v>
       </c>
@@ -3216,10 +3219,10 @@
       <c r="Q5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="49"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="58"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1">
       <c r="A6" s="4">
@@ -3399,11 +3402,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="T3:T5"/>
@@ -3417,6 +3415,11 @@
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:U6">
     <cfRule type="expression" dxfId="2" priority="28">

--- a/information/Phan mem QLCB_HQHT.xlsx
+++ b/information/Phan mem QLCB_HQHT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="103">
   <si>
     <t>DANH SÁCH BÁO LỖI PHẦN MỀM TCCB</t>
   </si>
@@ -790,6 +790,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -802,18 +894,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -824,86 +904,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1228,7 +1228,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
@@ -1493,7 +1493,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="47.25">
+    <row r="17" spans="1:6" ht="47.25">
       <c r="A17" s="39">
         <v>14</v>
       </c>
@@ -1509,8 +1509,11 @@
       <c r="E17" s="34" t="s">
         <v>16</v>
       </c>
+      <c r="F17" s="42" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" ht="31.5">
+    <row r="18" spans="1:6" ht="31.5">
       <c r="A18" s="39">
         <v>15</v>
       </c>
@@ -1527,7 +1530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="31.5">
+    <row r="19" spans="1:6" ht="31.5">
       <c r="A19" s="39">
         <v>16</v>
       </c>
@@ -1541,6 +1544,9 @@
         <v>99</v>
       </c>
       <c r="E19" s="34"/>
+      <c r="F19" s="42" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:E3">
@@ -3112,101 +3118,101 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="62" t="s">
+      <c r="M3" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="62" t="s">
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="62" t="s">
+      <c r="S3" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="59" t="s">
+      <c r="T3" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="56" t="s">
+      <c r="U3" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="57"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:21" ht="24">
-      <c r="A5" s="46"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
       <c r="N5" s="2" t="s">
         <v>57</v>
       </c>
@@ -3219,10 +3225,10 @@
       <c r="Q5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="58"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1">
       <c r="A6" s="4">
@@ -3402,6 +3408,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="T3:T5"/>
@@ -3415,11 +3426,6 @@
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:U6">
     <cfRule type="expression" dxfId="2" priority="28">

--- a/information/Phan mem QLCB_HQHT.xlsx
+++ b/information/Phan mem QLCB_HQHT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="103">
   <si>
     <t>DANH SÁCH BÁO LỖI PHẦN MỀM TCCB</t>
   </si>
@@ -790,6 +790,42 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -858,18 +894,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -880,30 +904,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
@@ -1325,6 +1325,9 @@
         <v>100</v>
       </c>
       <c r="E6" s="34"/>
+      <c r="F6" s="42" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="63">
       <c r="A7" s="39">
@@ -3118,101 +3121,101 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="53" t="s">
+      <c r="L3" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="N3" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="53" t="s">
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="53" t="s">
+      <c r="S3" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="50" t="s">
+      <c r="T3" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="47" t="s">
+      <c r="U3" s="56" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="48"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="57"/>
     </row>
     <row r="5" spans="1:21" ht="24">
-      <c r="A5" s="70"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
       <c r="N5" s="2" t="s">
         <v>57</v>
       </c>
@@ -3225,10 +3228,10 @@
       <c r="Q5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="49"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="58"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1">
       <c r="A6" s="4">
@@ -3408,11 +3411,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="T3:T5"/>
@@ -3426,6 +3424,11 @@
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:U6">
     <cfRule type="expression" dxfId="2" priority="28">

--- a/information/Phan mem QLCB_HQHT.xlsx
+++ b/information/Phan mem QLCB_HQHT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="103">
   <si>
     <t>DANH SÁCH BÁO LỖI PHẦN MỀM TCCB</t>
   </si>
@@ -790,6 +790,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -802,18 +894,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -824,86 +904,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
@@ -1292,6 +1292,9 @@
         <v>29</v>
       </c>
       <c r="E4" s="34"/>
+      <c r="F4" s="42" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="63">
       <c r="A5" s="39">
@@ -3121,101 +3124,101 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="62" t="s">
+      <c r="M3" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="62" t="s">
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="62" t="s">
+      <c r="S3" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="59" t="s">
+      <c r="T3" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="56" t="s">
+      <c r="U3" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="57"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:21" ht="24">
-      <c r="A5" s="46"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
       <c r="N5" s="2" t="s">
         <v>57</v>
       </c>
@@ -3228,10 +3231,10 @@
       <c r="Q5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="58"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1">
       <c r="A6" s="4">
@@ -3411,6 +3414,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="T3:T5"/>
@@ -3424,11 +3432,6 @@
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:U6">
     <cfRule type="expression" dxfId="2" priority="28">

--- a/information/Phan mem QLCB_HQHT.xlsx
+++ b/information/Phan mem QLCB_HQHT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
   <si>
     <t>DANH SÁCH BÁO LỖI PHẦN MỀM TCCB</t>
   </si>
@@ -790,6 +790,42 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -858,18 +894,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -880,30 +904,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
@@ -1383,6 +1383,9 @@
       <c r="E9" s="34" t="s">
         <v>8</v>
       </c>
+      <c r="F9" s="42" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="31.5">
       <c r="A10" s="39">
@@ -1398,6 +1401,9 @@
         <v>11</v>
       </c>
       <c r="E10" s="34"/>
+      <c r="F10" s="42" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="39">
@@ -1431,6 +1437,9 @@
         <v>33</v>
       </c>
       <c r="E12" s="34"/>
+      <c r="F12" s="42" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="47.25">
       <c r="A13" s="39">
@@ -3124,101 +3133,101 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="53" t="s">
+      <c r="L3" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="N3" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="53" t="s">
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="53" t="s">
+      <c r="S3" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="50" t="s">
+      <c r="T3" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="47" t="s">
+      <c r="U3" s="56" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="48"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="57"/>
     </row>
     <row r="5" spans="1:21" ht="24">
-      <c r="A5" s="70"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
       <c r="N5" s="2" t="s">
         <v>57</v>
       </c>
@@ -3231,10 +3240,10 @@
       <c r="Q5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="49"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="58"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1">
       <c r="A6" s="4">
@@ -3414,11 +3423,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="T3:T5"/>
@@ -3432,6 +3436,11 @@
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:U6">
     <cfRule type="expression" dxfId="2" priority="28">

--- a/information/Phan mem QLCB_HQHT.xlsx
+++ b/information/Phan mem QLCB_HQHT.xlsx
@@ -790,6 +790,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -802,18 +894,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -824,86 +904,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
@@ -3133,101 +3133,101 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="62" t="s">
+      <c r="M3" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="62" t="s">
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="62" t="s">
+      <c r="S3" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="59" t="s">
+      <c r="T3" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="56" t="s">
+      <c r="U3" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="57"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:21" ht="24">
-      <c r="A5" s="46"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
       <c r="N5" s="2" t="s">
         <v>57</v>
       </c>
@@ -3240,10 +3240,10 @@
       <c r="Q5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="58"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1">
       <c r="A6" s="4">
@@ -3423,6 +3423,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="T3:T5"/>
@@ -3436,11 +3441,6 @@
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:U6">
     <cfRule type="expression" dxfId="2" priority="28">

--- a/information/Phan mem QLCB_HQHT.xlsx
+++ b/information/Phan mem QLCB_HQHT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
   <si>
     <t>DANH SÁCH BÁO LỖI PHẦN MỀM TCCB</t>
   </si>
@@ -790,6 +790,42 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -858,18 +894,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -880,30 +904,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
@@ -1543,6 +1543,9 @@
       </c>
       <c r="E18" s="34" t="s">
         <v>19</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="31.5">
@@ -3133,101 +3136,101 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="53" t="s">
+      <c r="L3" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="N3" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="53" t="s">
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="53" t="s">
+      <c r="S3" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="50" t="s">
+      <c r="T3" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="47" t="s">
+      <c r="U3" s="56" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="48"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="57"/>
     </row>
     <row r="5" spans="1:21" ht="24">
-      <c r="A5" s="70"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
       <c r="N5" s="2" t="s">
         <v>57</v>
       </c>
@@ -3240,10 +3243,10 @@
       <c r="Q5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="49"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="58"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1">
       <c r="A6" s="4">
@@ -3423,11 +3426,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="T3:T5"/>
@@ -3441,6 +3439,11 @@
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:U6">
     <cfRule type="expression" dxfId="2" priority="28">

--- a/information/Phan mem QLCB_HQHT.xlsx
+++ b/information/Phan mem QLCB_HQHT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="6915"/>
   </bookViews>
   <sheets>
     <sheet name="Chinh sua" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="103">
   <si>
     <t>DANH SÁCH BÁO LỖI PHẦN MỀM TCCB</t>
   </si>
@@ -790,6 +790,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -802,18 +894,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -824,86 +904,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
@@ -1471,6 +1471,9 @@
       </c>
       <c r="E14" s="34" t="s">
         <v>19</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="63">
@@ -3136,101 +3139,101 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="62" t="s">
+      <c r="M3" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="62" t="s">
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="62" t="s">
+      <c r="S3" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="59" t="s">
+      <c r="T3" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="56" t="s">
+      <c r="U3" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="57"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:21" ht="24">
-      <c r="A5" s="46"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
       <c r="N5" s="2" t="s">
         <v>57</v>
       </c>
@@ -3243,10 +3246,10 @@
       <c r="Q5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="58"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1">
       <c r="A6" s="4">
@@ -3426,6 +3429,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="T3:T5"/>
@@ -3439,11 +3447,6 @@
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:U6">
     <cfRule type="expression" dxfId="2" priority="28">

--- a/information/Phan mem QLCB_HQHT.xlsx
+++ b/information/Phan mem QLCB_HQHT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
   <si>
     <t>DANH SÁCH BÁO LỖI PHẦN MỀM TCCB</t>
   </si>
@@ -790,6 +790,42 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -858,18 +894,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -880,30 +904,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1228,7 +1228,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
@@ -1455,6 +1455,9 @@
         <v>96</v>
       </c>
       <c r="E13" s="34"/>
+      <c r="F13" s="42" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="47.25">
       <c r="A14" s="39">
@@ -3139,101 +3142,101 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="53" t="s">
+      <c r="L3" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="N3" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="53" t="s">
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="53" t="s">
+      <c r="S3" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="50" t="s">
+      <c r="T3" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="47" t="s">
+      <c r="U3" s="56" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="48"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="57"/>
     </row>
     <row r="5" spans="1:21" ht="24">
-      <c r="A5" s="70"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
       <c r="N5" s="2" t="s">
         <v>57</v>
       </c>
@@ -3246,10 +3249,10 @@
       <c r="Q5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="49"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="58"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1">
       <c r="A6" s="4">
@@ -3429,11 +3432,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="T3:T5"/>
@@ -3447,6 +3445,11 @@
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:U6">
     <cfRule type="expression" dxfId="2" priority="28">
